--- a/src/excel_template/posQC/Global STR format.xlsx
+++ b/src/excel_template/posQC/Global STR format.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohnishi.takayuki\Documents\02 pythonサンプルプログラム\tool\src\excel_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohnishi.takayuki\Documents\02 pythonサンプルプログラム\tool\src\excel_template\posQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6520" tabRatio="780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6520" tabRatio="780" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="22" r:id="rId1"/>
@@ -3746,7 +3746,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5160,7 +5159,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10706,7 +10704,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -36485,7 +36483,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A2:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
